--- a/data/trans_dic/P12_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2165088860645085</v>
+        <v>0.2146233222555013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1575697109478645</v>
+        <v>0.1572870257237542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1540487529416004</v>
+        <v>0.1541615180322523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.149193530219768</v>
+        <v>0.1515395088786472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2357173968373152</v>
+        <v>0.2396606627910653</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2601827675945094</v>
+        <v>0.2577432758112436</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1956905577052735</v>
+        <v>0.1948533611442513</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2436708191351547</v>
+        <v>0.2452400243897916</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.23470287524171</v>
+        <v>0.2385851240113617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.216825223761228</v>
+        <v>0.2190012715429951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1820178963547557</v>
+        <v>0.1833608343986386</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2125708810994768</v>
+        <v>0.21299307360575</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2900248076472372</v>
+        <v>0.2884075442259132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2073284616548198</v>
+        <v>0.2065098926656633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2007655786457212</v>
+        <v>0.1992825881549984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2202405612046804</v>
+        <v>0.2245440618857303</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2962204057451726</v>
+        <v>0.2999839296603599</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3176074957896134</v>
+        <v>0.3131178716317256</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2427884645501631</v>
+        <v>0.2447952449147455</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3101246258269685</v>
+        <v>0.30712963282998</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2814332986412066</v>
+        <v>0.2838238113844117</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2550077307709412</v>
+        <v>0.2546189314111034</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2145103604385037</v>
+        <v>0.2178896565357254</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.260777006137681</v>
+        <v>0.2618604693133596</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1452441198481618</v>
+        <v>0.1457293476510871</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1565283109898368</v>
+        <v>0.1556436042355939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08620435156113045</v>
+        <v>0.08744318207320986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08843531225959676</v>
+        <v>0.086744853798486</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1957401128737963</v>
+        <v>0.1981064676438206</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2462580751100166</v>
+        <v>0.2458130648288709</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1187686623517396</v>
+        <v>0.11942725457445</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1364814853632256</v>
+        <v>0.1357289208818504</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1767921705154141</v>
+        <v>0.1783106887495162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2105574108471108</v>
+        <v>0.2112182028857283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.107567227540365</v>
+        <v>0.107394753917384</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1190088677036775</v>
+        <v>0.1179675939469456</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1909476602932744</v>
+        <v>0.1921240707545782</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2085182385833003</v>
+        <v>0.2090895153966444</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1278520500061137</v>
+        <v>0.1278889373139789</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1265537363788447</v>
+        <v>0.129622094931102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.249201106176113</v>
+        <v>0.2473576954540719</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2986464796026648</v>
+        <v>0.3030231806150182</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1606790464456877</v>
+        <v>0.1613268890720303</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1739043863103129</v>
+        <v>0.1722756193801397</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2120604248109321</v>
+        <v>0.2123537895919257</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2489470350175584</v>
+        <v>0.2494439744978559</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1389459631466381</v>
+        <v>0.1364936200498408</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1461236492377285</v>
+        <v>0.145310293904322</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1091509126998963</v>
+        <v>0.1086239249445991</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09652582422202341</v>
+        <v>0.09737435324365649</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06090023465248538</v>
+        <v>0.06050265046493343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07346169610899823</v>
+        <v>0.07347642464037916</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.160579012896069</v>
+        <v>0.1582454178147089</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2032967637157608</v>
+        <v>0.1987853921403352</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09287336863376608</v>
+        <v>0.09238099539183445</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1357770469298649</v>
+        <v>0.1388535376603431</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1391173662531975</v>
+        <v>0.1382117470712558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1546413452689802</v>
+        <v>0.1541521988979665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08132436188219166</v>
+        <v>0.08002531489796361</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1088857872408885</v>
+        <v>0.1094855253717919</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1496430992472958</v>
+        <v>0.1487197919263912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1386224506979205</v>
+        <v>0.1401910956062073</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1016623575691303</v>
+        <v>0.09955970085721788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1109035927329415</v>
+        <v>0.110029210513155</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2094014544391244</v>
+        <v>0.2077761739704685</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2634698697388636</v>
+        <v>0.2579061401704971</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1429777595510316</v>
+        <v>0.1413206989484108</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1764154609345301</v>
+        <v>0.1755734496792581</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1707600491191075</v>
+        <v>0.1704846884033874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1909147238373716</v>
+        <v>0.1896984365405585</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1125825674285658</v>
+        <v>0.1121570095002082</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1369315638086849</v>
+        <v>0.1372167124714369</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1358016437033252</v>
+        <v>0.1344610999087577</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.103506467487746</v>
+        <v>0.102169190704771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04409304837124425</v>
+        <v>0.04552117055917082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1605115020693965</v>
+        <v>0.1578473559334664</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1657640939764078</v>
+        <v>0.1657268977699299</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1799821281244301</v>
+        <v>0.1814047147469051</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1450859255549486</v>
+        <v>0.1414312346551971</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2156440176045202</v>
+        <v>0.2178793570149705</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1595520801731813</v>
+        <v>0.157696042496969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1486541359179012</v>
+        <v>0.1531454568933139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0974658976052577</v>
+        <v>0.09984911257288451</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1938504522483261</v>
+        <v>0.1939570317546069</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.206909374001957</v>
+        <v>0.206216795035693</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1697693137290827</v>
+        <v>0.1669874092788722</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09448089104391209</v>
+        <v>0.09268226961712787</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2112757818676547</v>
+        <v>0.2144192934172106</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2534504750683739</v>
+        <v>0.2547660472030943</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2599097692869557</v>
+        <v>0.2594883892978089</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2154922124493152</v>
+        <v>0.2141260624603346</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2643207965230403</v>
+        <v>0.2661050514494833</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2146435180847744</v>
+        <v>0.2130352968054241</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2016473564103599</v>
+        <v>0.2020029346761663</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.140135210492799</v>
+        <v>0.1431582520861418</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2301747543584501</v>
+        <v>0.2310366772856693</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1418388649899396</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1661293821840179</v>
+        <v>0.1661293821840178</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1541498476349094</v>
+        <v>0.1550169696921878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1451288556569743</v>
+        <v>0.1442887642944687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1042620509766895</v>
+        <v>0.1051738206756539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1221963376343908</v>
+        <v>0.1228308433322523</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2075971131318669</v>
+        <v>0.207882612905856</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2457473344470785</v>
+        <v>0.2444631674224029</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1531260874467363</v>
+        <v>0.1544188579027702</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1858335449202943</v>
+        <v>0.1847308081897087</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1851906279805451</v>
+        <v>0.1856430969462786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2000639102140444</v>
+        <v>0.2007202275870715</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1329719517547857</v>
+        <v>0.134019131418033</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1576844550246888</v>
+        <v>0.1575195929827105</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1816173819007253</v>
+        <v>0.1825337259669437</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1705554698772483</v>
+        <v>0.1701097218355501</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.126851856099087</v>
+        <v>0.1276952681431639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1465809596504793</v>
+        <v>0.1459408918269439</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2347720837254317</v>
+        <v>0.2374890806544013</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.275048654061869</v>
+        <v>0.2757177016469566</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1797276891834077</v>
+        <v>0.1782657369663191</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2089834171530694</v>
+        <v>0.2069202702248735</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2047628397687655</v>
+        <v>0.205610993282993</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2195586578543212</v>
+        <v>0.2210093185799936</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1500148575448976</v>
+        <v>0.150757719183928</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1744148481466309</v>
+        <v>0.1744386868439637</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>126472</v>
+        <v>125370</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>164493</v>
+        <v>164197</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>173432</v>
+        <v>173559</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>74409</v>
+        <v>75579</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>217410</v>
+        <v>221047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>290333</v>
+        <v>287611</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>245708</v>
+        <v>244657</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>151810</v>
+        <v>152787</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>353574</v>
+        <v>359422</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>468303</v>
+        <v>473003</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>433461</v>
+        <v>436660</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>238452</v>
+        <v>238925</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>169415</v>
+        <v>168471</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>216437</v>
+        <v>215583</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>226027</v>
+        <v>224358</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>109843</v>
+        <v>111989</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>273214</v>
+        <v>276685</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>354412</v>
+        <v>349403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>304844</v>
+        <v>307364</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>193211</v>
+        <v>191345</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>423972</v>
+        <v>427573</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>550770</v>
+        <v>549930</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>510840</v>
+        <v>518887</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>292527</v>
+        <v>293742</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>156558</v>
+        <v>157081</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>152778</v>
+        <v>151915</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>78345</v>
+        <v>79471</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>84910</v>
+        <v>83287</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>207003</v>
+        <v>209505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>268739</v>
+        <v>268254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>119387</v>
+        <v>120049</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>152293</v>
+        <v>151453</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>377528</v>
+        <v>380770</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>435292</v>
+        <v>436658</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>205887</v>
+        <v>205557</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>247061</v>
+        <v>244899</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>205821</v>
+        <v>207089</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>203522</v>
+        <v>204080</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>116195</v>
+        <v>116229</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>121509</v>
+        <v>124455</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>263540</v>
+        <v>261590</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>325911</v>
+        <v>330687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>161515</v>
+        <v>162166</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>194051</v>
+        <v>192234</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>452841</v>
+        <v>453467</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>514656</v>
+        <v>515684</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>265947</v>
+        <v>261253</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>303351</v>
+        <v>301662</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>122423</v>
+        <v>121832</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>85327</v>
+        <v>86077</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50167</v>
+        <v>49840</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>76812</v>
+        <v>76828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>159606</v>
+        <v>157286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>177847</v>
+        <v>173900</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>71529</v>
+        <v>71150</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>142246</v>
+        <v>145469</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>294308</v>
+        <v>292392</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>271983</v>
+        <v>271122</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>129626</v>
+        <v>127555</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>227926</v>
+        <v>229181</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>167839</v>
+        <v>166803</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>122540</v>
+        <v>123927</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>83745</v>
+        <v>82013</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>115962</v>
+        <v>115048</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>208132</v>
+        <v>206517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>230487</v>
+        <v>225620</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>110118</v>
+        <v>108842</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>184820</v>
+        <v>183938</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>361249</v>
+        <v>360666</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>335780</v>
+        <v>333641</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>179450</v>
+        <v>178771</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>286633</v>
+        <v>287229</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60730</v>
+        <v>60131</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51966</v>
+        <v>51295</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22342</v>
+        <v>23066</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>156648</v>
+        <v>154048</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>56552</v>
+        <v>56539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>81484</v>
+        <v>82128</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>71048</v>
+        <v>69259</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>195843</v>
+        <v>197873</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>125784</v>
+        <v>124321</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>141934</v>
+        <v>146222</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>97115</v>
+        <v>99489</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>365235</v>
+        <v>365436</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>92530</v>
+        <v>92220</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85234</v>
+        <v>83837</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47874</v>
+        <v>46962</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>206190</v>
+        <v>209258</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>86467</v>
+        <v>86915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>117671</v>
+        <v>117480</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>105526</v>
+        <v>104857</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>240050</v>
+        <v>241670</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>169216</v>
+        <v>167948</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>192531</v>
+        <v>192871</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>139630</v>
+        <v>142643</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>433674</v>
+        <v>435298</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>498032</v>
+        <v>500833</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>494311</v>
+        <v>491450</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>350853</v>
+        <v>353922</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>425294</v>
+        <v>427503</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>688178</v>
+        <v>689124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>868649</v>
+        <v>864109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>539107</v>
+        <v>543659</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>686595</v>
+        <v>682521</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1212220</v>
+        <v>1215182</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1388591</v>
+        <v>1393147</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>915617</v>
+        <v>922827</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1131401</v>
+        <v>1130218</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>586775</v>
+        <v>589735</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>580915</v>
+        <v>579397</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>426871</v>
+        <v>429709</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>510163</v>
+        <v>507935</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>778262</v>
+        <v>787269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>972221</v>
+        <v>974585</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>632763</v>
+        <v>627616</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>772127</v>
+        <v>764504</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1340336</v>
+        <v>1345888</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1523899</v>
+        <v>1533968</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1032970</v>
+        <v>1038086</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1251443</v>
+        <v>1251614</v>
       </c>
     </row>
     <row r="24">
